--- a/biology/Botanique/Parc_d'Otto-Iivari_Meurman/Parc_d'Otto-Iivari_Meurman.xlsx
+++ b/biology/Botanique/Parc_d'Otto-Iivari_Meurman/Parc_d'Otto-Iivari_Meurman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27Otto-Iivari_Meurman</t>
+          <t>Parc_d'Otto-Iivari_Meurman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc d'Otto-Iivari Meurman (finnois : Otto-Iivari Meurmanin puisto) est un parc de 1,2 hectare du quartier de Käpylä à Helsinki en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc d'Otto-Iivari Meurman (finnois : Otto-Iivari Meurmanin puisto) est un parc de 1,2 hectare du quartier de Käpylä à Helsinki en Finlande,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27Otto-Iivari_Meurman</t>
+          <t>Parc_d'Otto-Iivari_Meurman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de 1,2 hectare est bordé par Pohjolankatu et Kullervonkatu.
 C'est à la fois un parc public et la cour de récréation de l'école primaire de Käpylä (fi).
 La station de secours de Käpylä est située au sud-est du parc. La station a été construite en 1931 et rénovée en 2005.  
 Le parc doit son nom au  professeur d’urbanisme Otto-Iivari Meurman.
-Les maisons entourant le parc dans le vieux centre de Käpylä ont été construites dans les années 1950[1].
-La rénovation du parc s'est achevée en 2005. Le parc a reçu une mention honorable lors du concours 2007 de la structure environnementale de l’année[2].
+Les maisons entourant le parc dans le vieux centre de Käpylä ont été construites dans les années 1950.
+La rénovation du parc s'est achevée en 2005. Le parc a reçu une mention honorable lors du concours 2007 de la structure environnementale de l’année.
 Le parc est divisé en plusieurs parties. Dans le coin nord-est se trouve une colline plantée de pins. Dans le coin sud-ouest, il y a une grande pelouse, principalement à la jonction de Pohjolankatu et de Kullervonkatu.
-Au sud de l'école se trouve un terrain de jeu et au sud-est les terrains de jeux de balle construits dans les années 1960, qui ont été réduits lors de la rénovation. Entre la pelouse et les terrains de balle, il y a une zone qui donne au parc une apparence de jardin[1].
+Au sud de l'école se trouve un terrain de jeu et au sud-est les terrains de jeux de balle construits dans les années 1960, qui ont été réduits lors de la rénovation. Entre la pelouse et les terrains de balle, il y a une zone qui donne au parc une apparence de jardin.
 </t>
         </is>
       </c>
